--- a/GcodeList.xlsx
+++ b/GcodeList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="855" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="855" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G CODES" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="287">
   <si>
     <t>Bootloader / Firmware</t>
   </si>
@@ -58,13 +58,10 @@
     <t>?F&lt;VAL&gt;</t>
   </si>
   <si>
-    <t>F   </t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>?F&lt;VAL&gt; ?E&lt;VAL&gt;   </t>
+    <t>?F&lt;VAL&gt; ?E&lt;VAL&gt;</t>
   </si>
   <si>
     <t>None</t>
@@ -94,24 +91,21 @@
     <t>G90</t>
   </si>
   <si>
-    <t>Set to Absolute Positioning </t>
+    <t>Set to Absolute Positioning</t>
   </si>
   <si>
     <t>G91</t>
   </si>
   <si>
-    <t>Set to Relative Positioning </t>
-  </si>
-  <si>
-    <t>G92   </t>
+    <t>Set to Relative Positioning</t>
+  </si>
+  <si>
+    <t>G92</t>
   </si>
   <si>
     <t>Define Current Position</t>
   </si>
   <si>
-    <t>?F&lt;VAL&gt; ?E&lt;VAL&gt;</t>
-  </si>
-  <si>
     <t>G131</t>
   </si>
   <si>
@@ -274,6 +268,9 @@
     <t>Print Current Position</t>
   </si>
   <si>
+    <t>CAUTION: Command used in bootloader mode to define firmware version string</t>
+  </si>
+  <si>
     <t>B/F</t>
   </si>
   <si>
@@ -826,7 +823,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>A&lt;VAL&gt;   </t>
+    <t>Report temperatures</t>
+  </si>
+  <si>
+    <t>Only electronics temperature is read</t>
+  </si>
+  <si>
+    <t>A&lt;VAL&gt;</t>
   </si>
   <si>
     <t>Set Firmware Version String</t>
@@ -841,16 +844,13 @@
     <t>M118</t>
   </si>
   <si>
-    <t>A&lt;VAL&gt;</t>
-  </si>
-  <si>
     <t>Write Serial Number</t>
   </si>
   <si>
+    <t>Reset Firmware</t>
+  </si>
+  <si>
     <t>M630</t>
-  </si>
-  <si>
-    <t>BTF+,BE ME, BE School, BTF</t>
   </si>
   <si>
     <t>Jump to Firmware</t>
@@ -887,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -929,6 +929,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -936,12 +937,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1064,7 +1059,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1129,10 +1124,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1161,15 +1152,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1177,7 +1160,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1358,13 +1341,13 @@
     </row>
     <row r="4" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -1381,7 +1364,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1391,19 +1374,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1411,19 +1394,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1431,19 +1414,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1451,19 +1434,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1471,19 +1454,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1491,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1503,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1511,7 +1494,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1521,19 +1504,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1541,19 +1524,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1591,8 +1574,8 @@
   </sheetPr>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1630,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1638,22 +1621,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1661,22 +1644,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1684,22 +1667,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1707,25 +1690,25 @@
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1733,22 +1716,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1756,22 +1739,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1779,22 +1762,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1802,22 +1785,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>39</v>
+      <c r="H9" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1825,61 +1808,61 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="G10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="C11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="D11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>39</v>
+      <c r="H11" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="17" t="s">
-        <v>39</v>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1887,22 +1870,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>39</v>
+      <c r="H13" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1910,22 +1893,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1933,22 +1916,22 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1956,22 +1939,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1979,22 +1962,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2002,22 +1985,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2025,45 +2008,48 @@
         <v>7</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="G19" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>39</v>
+      <c r="H19" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>39</v>
+      <c r="H20" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2071,48 +2057,48 @@
         <v>7</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>39</v>
+      <c r="H22" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2120,22 +2106,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>39</v>
+      <c r="H23" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2143,22 +2129,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>39</v>
+      <c r="H24" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2166,22 +2152,22 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
+      <c r="H25" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2189,48 +2175,48 @@
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>39</v>
+      <c r="H27" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2238,22 +2224,22 @@
         <v>7</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>39</v>
+      <c r="H28" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2261,22 +2247,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>39</v>
+      <c r="H29" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2284,22 +2270,22 @@
         <v>7</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>39</v>
+      <c r="H30" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2307,22 +2293,22 @@
         <v>7</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>39</v>
+      <c r="H31" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2330,22 +2316,22 @@
         <v>7</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>39</v>
+      <c r="H32" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2353,22 +2339,22 @@
         <v>7</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>39</v>
+      <c r="H33" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2376,94 +2362,97 @@
         <v>7</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="H34" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="D35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="H35" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="H36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="H39" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2471,22 +2460,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2494,22 +2483,22 @@
         <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="H41" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2517,22 +2506,22 @@
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H42" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2540,22 +2529,22 @@
         <v>7</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="H43" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,22 +2552,22 @@
         <v>7</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="H44" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2586,45 +2575,45 @@
         <v>7</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="14" t="s">
+      <c r="H45" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="E46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="H46" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2632,22 +2621,22 @@
         <v>7</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="H47" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2655,71 +2644,71 @@
         <v>7</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="H48" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="D49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="H49" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="23" t="s">
+      <c r="D50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="22" t="s">
+      <c r="G50" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="H50" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2727,22 +2716,22 @@
         <v>7</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="H51" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2750,22 +2739,22 @@
         <v>7</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>39</v>
+      <c r="H52" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2774,10 +2763,10 @@
       <c r="C53" s="15"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="28"/>
+      <c r="F53" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14"/>
@@ -2785,10 +2774,10 @@
       <c r="C54" s="15"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="28"/>
+      <c r="F54" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14"/>
@@ -2796,10 +2785,10 @@
       <c r="C55" s="15"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="H55" s="28"/>
+      <c r="F55" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14"/>
@@ -2807,10 +2796,10 @@
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="28"/>
+      <c r="F56" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14"/>
@@ -2818,32 +2807,32 @@
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="H57" s="28"/>
+      <c r="F57" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>185</v>
-      </c>
       <c r="H58" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2851,22 +2840,22 @@
         <v>7</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>188</v>
-      </c>
       <c r="H59" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2874,22 +2863,22 @@
         <v>7</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="D60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="H60" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2897,22 +2886,22 @@
         <v>7</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>194</v>
-      </c>
       <c r="H61" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2920,643 +2909,646 @@
         <v>7</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="D62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="14" t="s">
+      <c r="H62" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="23" t="s">
+      <c r="D63" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="E63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="22" t="s">
+      <c r="H63" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="D64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="22" t="s">
+      <c r="H64" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="D65" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="E65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="22" t="s">
+      <c r="H65" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="H66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="H67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="H68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="D69" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="H69" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="D70" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="22" t="s">
+      <c r="H70" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="D71" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="E71" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" s="31" t="s">
+      <c r="H71" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H71" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="8" t="s">
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="31" t="s">
+      <c r="E73" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="31" t="s">
+      <c r="H73" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H73" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33" t="s">
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="H76" s="28"/>
-    </row>
-    <row r="77" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="D77" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="22" t="s">
+      <c r="H77" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H77" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="D78" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="22" t="s">
+      <c r="H78" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="D79" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="E79" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" s="22" t="s">
+      <c r="H79" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="23" t="s">
+      <c r="C80" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="D80" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="22" t="s">
+      <c r="H80" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="D81" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="22" t="s">
+      <c r="H81" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="H81" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="35" t="s">
+      <c r="C82" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="D82" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" s="22" t="s">
+      <c r="H82" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="35" t="s">
+      <c r="C83" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="D83" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="22" t="s">
+      <c r="H83" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="H83" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="35" t="s">
+      <c r="D84" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F84" s="22" t="s">
+      <c r="H84" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-    </row>
-    <row r="86" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-    </row>
-    <row r="87" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-    </row>
-    <row r="88" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="23" t="s">
+      <c r="D88" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="22" t="s">
+      <c r="F88" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F88" s="22" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="23" t="s">
+      <c r="D89" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F89" s="22" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F90" s="22" t="s">
+    <row r="91" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="23" t="s">
+      <c r="D91" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D91" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F91" s="22" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="23" t="s">
+      <c r="D92" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F92" s="22" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="23" t="s">
+      <c r="D93" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F93" s="22" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="23" t="s">
+      <c r="D94" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F94" s="22" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="23" t="s">
+      <c r="D95" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="22" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C96" s="23" t="s">
+      <c r="D96" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3603,13 +3595,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.995951417004"/>
@@ -3643,203 +3635,246 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>267</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>286</v>
       </c>
     </row>
